--- a/rfrupload/rfrapp/input/input.xlsx
+++ b/rfrupload/rfrapp/input/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Category</t>
   </si>
@@ -72,10 +72,16 @@
     <t>Corrected Reasons by Planners</t>
   </si>
   <si>
-    <t>Discontinued/ Obsolete</t>
-  </si>
-  <si>
-    <t>Sales Related</t>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SO</t>
   </si>
 </sst>
 </file>
@@ -414,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -501,6 +507,28 @@
       </c>
       <c r="R3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>1601002</v>
+      </c>
+      <c r="N4">
+        <v>102343878</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>1600544</v>
+      </c>
+      <c r="N5">
+        <v>102343878</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/rfrupload/rfrapp/input/input.xlsx
+++ b/rfrupload/rfrapp/input/input.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="360" windowWidth="18820" windowHeight="7060"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$306</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -72,16 +75,169 @@
     <t>Corrected Reasons by Planners</t>
   </si>
   <si>
+    <t>IN00797A</t>
+  </si>
+  <si>
+    <t>IN00659A</t>
+  </si>
+  <si>
+    <t>IN00731A</t>
+  </si>
+  <si>
+    <t>IN00798A</t>
+  </si>
+  <si>
+    <t>IN00535A</t>
+  </si>
+  <si>
+    <t>IN00816A</t>
+  </si>
+  <si>
+    <t>IN00747A</t>
+  </si>
+  <si>
+    <t>IN00749A</t>
+  </si>
+  <si>
+    <t>IN00806A</t>
+  </si>
+  <si>
+    <t>IN00841A</t>
+  </si>
+  <si>
+    <t>IN00843A</t>
+  </si>
+  <si>
+    <t>IN00844A</t>
+  </si>
+  <si>
     <t>O2</t>
   </si>
   <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>SO</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>IN00815A</t>
+  </si>
+  <si>
+    <t>IN00732A</t>
+  </si>
+  <si>
+    <t>IN00641A</t>
+  </si>
+  <si>
+    <t>IN00850A</t>
+  </si>
+  <si>
+    <t>IN00810A</t>
+  </si>
+  <si>
+    <t>IN00650A</t>
+  </si>
+  <si>
+    <t>IN00836A</t>
+  </si>
+  <si>
+    <t>IN00642A</t>
+  </si>
+  <si>
+    <t>IN00623A</t>
+  </si>
+  <si>
+    <t>IN00714A</t>
+  </si>
+  <si>
+    <t>IN00552A</t>
+  </si>
+  <si>
+    <t>IN00756A</t>
+  </si>
+  <si>
+    <t>IN00763A</t>
+  </si>
+  <si>
+    <t>IN00842A</t>
+  </si>
+  <si>
+    <t>IT04918A</t>
+  </si>
+  <si>
+    <t>IN00852A</t>
+  </si>
+  <si>
+    <t>IN00817A</t>
+  </si>
+  <si>
+    <t>IN00697A</t>
+  </si>
+  <si>
+    <t>IN00808A</t>
+  </si>
+  <si>
+    <t>IN00757A</t>
+  </si>
+  <si>
+    <t>IN00536A</t>
+  </si>
+  <si>
+    <t>IT03813A</t>
+  </si>
+  <si>
+    <t>IT03815A</t>
+  </si>
+  <si>
+    <t>IN00704A</t>
+  </si>
+  <si>
+    <t>TH01876A</t>
+  </si>
+  <si>
+    <t>IN00761A</t>
+  </si>
+  <si>
+    <t>TH01912A</t>
+  </si>
+  <si>
+    <t>TH01913A</t>
+  </si>
+  <si>
+    <t>TH01927A</t>
+  </si>
+  <si>
+    <t>TH01928A</t>
+  </si>
+  <si>
+    <t>TH01995A</t>
+  </si>
+  <si>
+    <t>TR01921A</t>
+  </si>
+  <si>
+    <t>TR01922A</t>
+  </si>
+  <si>
+    <t>IN00780A</t>
+  </si>
+  <si>
+    <t>IT04917A</t>
+  </si>
+  <si>
+    <t>IN00606A</t>
+  </si>
+  <si>
+    <t>IN00675A</t>
+  </si>
+  <si>
+    <t>IN00752A</t>
+  </si>
+  <si>
+    <t>IN00645A</t>
   </si>
 </sst>
 </file>
@@ -420,14 +576,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,47 +645,3358 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>109445333</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>109445333</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>109445333</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>109445333</v>
+      </c>
+      <c r="R5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1600617</v>
+      </c>
+      <c r="N6">
+        <v>109445694</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>109445709</v>
+      </c>
+      <c r="R7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <v>109445012</v>
+      </c>
+      <c r="R8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>1600617</v>
+      </c>
+      <c r="N9">
+        <v>109445694</v>
+      </c>
+      <c r="R9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>109445709</v>
+      </c>
+      <c r="R10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>109445709</v>
+      </c>
+      <c r="R11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <v>109445972</v>
+      </c>
+      <c r="R12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>109445972</v>
+      </c>
+      <c r="R13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>109445982</v>
+      </c>
+      <c r="R14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>109445982</v>
+      </c>
+      <c r="R15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>109445982</v>
+      </c>
+      <c r="R16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>109445982</v>
+      </c>
+      <c r="R17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18">
+        <v>109445982</v>
+      </c>
+      <c r="R18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>109445982</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>1611672</v>
+      </c>
+      <c r="N20">
+        <v>109445982</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>1611442</v>
+      </c>
+      <c r="N21">
+        <v>109445982</v>
+      </c>
+      <c r="R21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>1602881</v>
+      </c>
+      <c r="N22">
+        <v>109445982</v>
+      </c>
+      <c r="R22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>1607750</v>
+      </c>
+      <c r="N23">
+        <v>109445982</v>
+      </c>
+      <c r="R23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>1611725</v>
+      </c>
+      <c r="N24">
+        <v>109445982</v>
+      </c>
+      <c r="R24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>1601261</v>
+      </c>
+      <c r="N25">
+        <v>109445982</v>
+      </c>
+      <c r="R25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>1607779</v>
+      </c>
+      <c r="N26">
+        <v>109445982</v>
+      </c>
+      <c r="R26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>1600616</v>
+      </c>
+      <c r="N27">
+        <v>109445982</v>
+      </c>
+      <c r="R27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28">
+        <v>109446629</v>
+      </c>
+      <c r="R28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29">
+        <v>109446723</v>
+      </c>
+      <c r="R29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30">
+        <v>109446723</v>
+      </c>
+      <c r="R30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>109446725</v>
+      </c>
+      <c r="R31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32">
+        <v>109446725</v>
+      </c>
+      <c r="R32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33">
+        <v>109446725</v>
+      </c>
+      <c r="R33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>1601886</v>
+      </c>
+      <c r="N34">
+        <v>109447486</v>
+      </c>
+      <c r="R34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>1620003</v>
+      </c>
+      <c r="N35">
+        <v>109447486</v>
+      </c>
+      <c r="R35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>1620004</v>
+      </c>
+      <c r="N36">
+        <v>109447486</v>
+      </c>
+      <c r="R36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>1601108</v>
+      </c>
+      <c r="N37">
+        <v>109447489</v>
+      </c>
+      <c r="R37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>1601288</v>
+      </c>
+      <c r="N38">
+        <v>109447489</v>
+      </c>
+      <c r="R38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>1601261</v>
+      </c>
+      <c r="N39">
+        <v>109447489</v>
+      </c>
+      <c r="R39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>1601886</v>
+      </c>
+      <c r="N40">
+        <v>109449050</v>
+      </c>
+      <c r="R40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>1602265</v>
+      </c>
+      <c r="N41">
+        <v>109449050</v>
+      </c>
+      <c r="R41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>1611441</v>
+      </c>
+      <c r="N42">
+        <v>109449050</v>
+      </c>
+      <c r="R42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>1611451</v>
+      </c>
+      <c r="N43">
+        <v>109449050</v>
+      </c>
+      <c r="R43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>1607707</v>
+      </c>
+      <c r="N44">
+        <v>109449050</v>
+      </c>
+      <c r="R44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>1607798</v>
+      </c>
+      <c r="N45">
+        <v>109449050</v>
+      </c>
+      <c r="R45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>1607799</v>
+      </c>
+      <c r="N46">
+        <v>109449050</v>
+      </c>
+      <c r="R46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>1607805</v>
+      </c>
+      <c r="N47">
+        <v>109449050</v>
+      </c>
+      <c r="R47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>109449050</v>
+      </c>
+      <c r="R48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49">
+        <v>109449217</v>
+      </c>
+      <c r="R49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>1607675</v>
+      </c>
+      <c r="N50">
+        <v>109449217</v>
+      </c>
+      <c r="R50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>1600958</v>
+      </c>
+      <c r="N51">
+        <v>109449217</v>
+      </c>
+      <c r="R51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52">
+        <v>109449217</v>
+      </c>
+      <c r="R52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>1608802</v>
+      </c>
+      <c r="N53">
+        <v>109449217</v>
+      </c>
+      <c r="R53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>1608857</v>
+      </c>
+      <c r="N54">
+        <v>109449217</v>
+      </c>
+      <c r="R54">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>1608101</v>
+      </c>
+      <c r="N55">
+        <v>109449217</v>
+      </c>
+      <c r="R55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>1608125</v>
+      </c>
+      <c r="N56">
+        <v>109449217</v>
+      </c>
+      <c r="R56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57">
+        <v>109449217</v>
+      </c>
+      <c r="R57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="N58">
+        <v>109449217</v>
+      </c>
+      <c r="R58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>1601002</v>
+      </c>
+      <c r="N59">
+        <v>109449217</v>
+      </c>
+      <c r="R59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>1601052</v>
+      </c>
+      <c r="N60">
+        <v>109449217</v>
+      </c>
+      <c r="R60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>19999999</v>
+      </c>
+      <c r="N61">
+        <v>109449217</v>
+      </c>
+      <c r="R61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>1602881</v>
+      </c>
+      <c r="N62">
+        <v>109449217</v>
+      </c>
+      <c r="R62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>1607715</v>
+      </c>
+      <c r="N63">
+        <v>109449217</v>
+      </c>
+      <c r="R63">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>1611727</v>
+      </c>
+      <c r="N64">
+        <v>109449217</v>
+      </c>
+      <c r="R64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>1601291</v>
+      </c>
+      <c r="N65">
+        <v>109449217</v>
+      </c>
+      <c r="R65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>1611631</v>
+      </c>
+      <c r="N66">
+        <v>109449217</v>
+      </c>
+      <c r="R66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67">
+        <v>109449217</v>
+      </c>
+      <c r="R67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>1611642</v>
+      </c>
+      <c r="N68">
+        <v>109449217</v>
+      </c>
+      <c r="R68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69">
+        <v>109449217</v>
+      </c>
+      <c r="R69">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70">
+        <v>109449217</v>
+      </c>
+      <c r="R70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>1600614</v>
+      </c>
+      <c r="N71">
+        <v>109449217</v>
+      </c>
+      <c r="R71">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <v>1600616</v>
+      </c>
+      <c r="N72">
+        <v>109449217</v>
+      </c>
+      <c r="R72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <v>1600617</v>
+      </c>
+      <c r="N73">
+        <v>109449217</v>
+      </c>
+      <c r="R73">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <v>1620018</v>
+      </c>
+      <c r="N74">
+        <v>109449495</v>
+      </c>
+      <c r="R74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75">
+        <v>109449495</v>
+      </c>
+      <c r="R75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C76">
+        <v>1601886</v>
+      </c>
+      <c r="N76">
+        <v>109449495</v>
+      </c>
+      <c r="R76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C77">
+        <v>1620003</v>
+      </c>
+      <c r="N77">
+        <v>109449495</v>
+      </c>
+      <c r="R77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C78">
+        <v>1620003</v>
+      </c>
+      <c r="N78">
+        <v>109449502</v>
+      </c>
+      <c r="R78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C79">
+        <v>1611518</v>
+      </c>
+      <c r="N79">
+        <v>109449504</v>
+      </c>
+      <c r="R79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="N80">
+        <v>109449504</v>
+      </c>
+      <c r="R80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C81">
+        <v>1620003</v>
+      </c>
+      <c r="N81">
+        <v>109449504</v>
+      </c>
+      <c r="R81">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>1620018</v>
+      </c>
+      <c r="N82">
+        <v>109449507</v>
+      </c>
+      <c r="R82">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83">
+        <v>109449507</v>
+      </c>
+      <c r="R83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C84">
+        <v>1601886</v>
+      </c>
+      <c r="N84">
+        <v>109449507</v>
+      </c>
+      <c r="R84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <v>1620004</v>
+      </c>
+      <c r="N85">
+        <v>109449507</v>
+      </c>
+      <c r="R85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86">
+        <v>109449839</v>
+      </c>
+      <c r="R86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C87">
+        <v>1601108</v>
+      </c>
+      <c r="N87">
+        <v>109449839</v>
+      </c>
+      <c r="R87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <v>1620018</v>
+      </c>
+      <c r="N88">
+        <v>109449839</v>
+      </c>
+      <c r="R88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89">
+        <v>109449839</v>
+      </c>
+      <c r="R89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="N90">
+        <v>109449839</v>
+      </c>
+      <c r="R90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <v>1601886</v>
+      </c>
+      <c r="N91">
+        <v>109449839</v>
+      </c>
+      <c r="R91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <v>1601235</v>
+      </c>
+      <c r="N92">
+        <v>109449839</v>
+      </c>
+      <c r="R92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93">
+        <v>109449839</v>
+      </c>
+      <c r="R93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="N94">
+        <v>109449897</v>
+      </c>
+      <c r="R94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="N95">
+        <v>109449897</v>
+      </c>
+      <c r="R95">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <v>1607750</v>
+      </c>
+      <c r="N96">
+        <v>109449897</v>
+      </c>
+      <c r="R96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="N97">
+        <v>109449897</v>
+      </c>
+      <c r="R97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98">
+        <v>109449897</v>
+      </c>
+      <c r="R98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <v>1611442</v>
+      </c>
+      <c r="N99">
+        <v>109449897</v>
+      </c>
+      <c r="R99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="N100">
+        <v>109449897</v>
+      </c>
+      <c r="R100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <v>1600617</v>
+      </c>
+      <c r="N101">
+        <v>109449897</v>
+      </c>
+      <c r="R101">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102">
+        <v>109449906</v>
+      </c>
+      <c r="R102">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="N103">
+        <v>109449906</v>
+      </c>
+      <c r="R103">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104">
+        <v>109449906</v>
+      </c>
+      <c r="R104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>47</v>
+      </c>
+      <c r="N105">
+        <v>109449906</v>
+      </c>
+      <c r="R105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="N106">
+        <v>109449906</v>
+      </c>
+      <c r="R106" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>29</v>
+      </c>
+      <c r="N107">
+        <v>109449906</v>
+      </c>
+      <c r="R107" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <v>1607705</v>
+      </c>
+      <c r="N108">
+        <v>109449906</v>
+      </c>
+      <c r="R108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C109">
+        <v>1607750</v>
+      </c>
+      <c r="N109">
+        <v>109449906</v>
+      </c>
+      <c r="R109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C110">
+        <v>1600616</v>
+      </c>
+      <c r="N110">
+        <v>109449906</v>
+      </c>
+      <c r="R110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C111">
+        <v>1600617</v>
+      </c>
+      <c r="N111">
+        <v>109449906</v>
+      </c>
+      <c r="R111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="N112">
+        <v>109450311</v>
+      </c>
+      <c r="R112">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113">
+        <v>109450330</v>
+      </c>
+      <c r="R113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>48</v>
+      </c>
+      <c r="N114">
+        <v>109450330</v>
+      </c>
+      <c r="R114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C115">
+        <v>1601235</v>
+      </c>
+      <c r="N115">
+        <v>109450330</v>
+      </c>
+      <c r="R115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="N116">
+        <v>109450330</v>
+      </c>
+      <c r="R116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="N117">
+        <v>109450330</v>
+      </c>
+      <c r="R117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C118">
+        <v>1620003</v>
+      </c>
+      <c r="N118">
+        <v>109451696</v>
+      </c>
+      <c r="R118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="N119">
+        <v>109451697</v>
+      </c>
+      <c r="R119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C120">
+        <v>1601108</v>
+      </c>
+      <c r="N120">
+        <v>109451697</v>
+      </c>
+      <c r="R120">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>50</v>
+      </c>
+      <c r="N121">
+        <v>109451697</v>
+      </c>
+      <c r="R121">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="N122">
+        <v>109451697</v>
+      </c>
+      <c r="R122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123">
+        <v>109451697</v>
+      </c>
+      <c r="R123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
+      <c r="N124">
+        <v>109451697</v>
+      </c>
+      <c r="R124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>53</v>
+      </c>
+      <c r="N125">
+        <v>109451697</v>
+      </c>
+      <c r="R125" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>46</v>
+      </c>
+      <c r="N126">
+        <v>109451697</v>
+      </c>
+      <c r="R126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C127">
+        <v>1607821</v>
+      </c>
+      <c r="N127">
+        <v>109451697</v>
+      </c>
+      <c r="R127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="N128">
+        <v>109451697</v>
+      </c>
+      <c r="R128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>54</v>
+      </c>
+      <c r="N129">
+        <v>109451697</v>
+      </c>
+      <c r="R129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="N130">
+        <v>109451697</v>
+      </c>
+      <c r="R130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="N131">
+        <v>109451697</v>
+      </c>
+      <c r="R131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>55</v>
+      </c>
+      <c r="N132">
+        <v>109451697</v>
+      </c>
+      <c r="R132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>56</v>
+      </c>
+      <c r="N133">
+        <v>109451697</v>
+      </c>
+      <c r="R133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C134">
+        <v>1621802</v>
+      </c>
+      <c r="N134">
+        <v>109451697</v>
+      </c>
+      <c r="R134">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C135">
+        <v>1621825</v>
+      </c>
+      <c r="N135">
+        <v>109451697</v>
+      </c>
+      <c r="R135">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C136">
+        <v>1621826</v>
+      </c>
+      <c r="N136">
+        <v>109451697</v>
+      </c>
+      <c r="R136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C137">
+        <v>1621834</v>
+      </c>
+      <c r="N137">
+        <v>109451697</v>
+      </c>
+      <c r="R137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C138">
+        <v>1600906</v>
+      </c>
+      <c r="N138">
+        <v>109451697</v>
+      </c>
+      <c r="R138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C139">
+        <v>1600908</v>
+      </c>
+      <c r="N139">
+        <v>109451697</v>
+      </c>
+      <c r="R139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C140">
+        <v>1600917</v>
+      </c>
+      <c r="N140">
+        <v>109451697</v>
+      </c>
+      <c r="R140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C141">
+        <v>1600931</v>
+      </c>
+      <c r="N141">
+        <v>109451697</v>
+      </c>
+      <c r="R141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C142">
+        <v>1600933</v>
+      </c>
+      <c r="N142">
+        <v>109451697</v>
+      </c>
+      <c r="R142">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C143">
+        <v>1600951</v>
+      </c>
+      <c r="N143">
+        <v>109451697</v>
+      </c>
+      <c r="R143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C144">
+        <v>1600958</v>
+      </c>
+      <c r="N144">
+        <v>109451697</v>
+      </c>
+      <c r="R144" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>40</v>
+      </c>
+      <c r="N145">
+        <v>109451697</v>
+      </c>
+      <c r="R145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C146">
+        <v>1608802</v>
+      </c>
+      <c r="N146">
+        <v>109451697</v>
+      </c>
+      <c r="R146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C147">
+        <v>1608102</v>
+      </c>
+      <c r="N147">
+        <v>109451697</v>
+      </c>
+      <c r="R147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C148">
+        <v>1608104</v>
+      </c>
+      <c r="N148">
+        <v>109451697</v>
+      </c>
+      <c r="R148" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C149">
+        <v>1608125</v>
+      </c>
+      <c r="N149">
+        <v>109451697</v>
+      </c>
+      <c r="R149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>39</v>
+      </c>
+      <c r="N150">
+        <v>109451697</v>
+      </c>
+      <c r="R150">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C151">
+        <v>19999999</v>
+      </c>
+      <c r="N151">
+        <v>109451697</v>
+      </c>
+      <c r="R151">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>20</v>
+      </c>
+      <c r="N152">
+        <v>109451697</v>
+      </c>
+      <c r="R152" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C153">
+        <v>1611672</v>
+      </c>
+      <c r="N153">
+        <v>109451697</v>
+      </c>
+      <c r="R153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C154">
+        <v>1602154</v>
+      </c>
+      <c r="N154">
+        <v>109451697</v>
+      </c>
+      <c r="R154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>57</v>
+      </c>
+      <c r="N155">
+        <v>109451697</v>
+      </c>
+      <c r="R155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C156">
+        <v>1611441</v>
+      </c>
+      <c r="N156">
+        <v>109451697</v>
+      </c>
+      <c r="R156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C157">
+        <v>1611442</v>
+      </c>
+      <c r="N157">
+        <v>109451697</v>
+      </c>
+      <c r="R157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C158">
+        <v>1611443</v>
+      </c>
+      <c r="N158">
+        <v>109451697</v>
+      </c>
+      <c r="R158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C159">
+        <v>1611451</v>
+      </c>
+      <c r="N159">
+        <v>109451697</v>
+      </c>
+      <c r="R159" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C160">
+        <v>1611452</v>
+      </c>
+      <c r="N160">
+        <v>109451697</v>
+      </c>
+      <c r="R160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C161" t="s">
+        <v>41</v>
+      </c>
+      <c r="N161">
+        <v>109451697</v>
+      </c>
+      <c r="R161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C162" t="s">
+        <v>38</v>
+      </c>
+      <c r="N162">
+        <v>109451697</v>
+      </c>
+      <c r="R162" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C163">
+        <v>1601002</v>
+      </c>
+      <c r="N163">
+        <v>109451697</v>
+      </c>
+      <c r="R163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C164">
+        <v>1601013</v>
+      </c>
+      <c r="N164">
+        <v>109451697</v>
+      </c>
+      <c r="R164">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C165">
+        <v>1601025</v>
+      </c>
+      <c r="N165">
+        <v>109451697</v>
+      </c>
+      <c r="R165" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C166">
+        <v>1601052</v>
+      </c>
+      <c r="N166">
+        <v>109451697</v>
+      </c>
+      <c r="R166" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
+        <v>37</v>
+      </c>
+      <c r="N167">
+        <v>109451697</v>
+      </c>
+      <c r="R167">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C168">
+        <v>1602881</v>
+      </c>
+      <c r="N168">
+        <v>109451697</v>
+      </c>
+      <c r="R168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C169">
+        <v>1607707</v>
+      </c>
+      <c r="N169">
+        <v>109451697</v>
+      </c>
+      <c r="R169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C170">
+        <v>1607714</v>
+      </c>
+      <c r="N170">
+        <v>109451697</v>
+      </c>
+      <c r="R170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C171">
+        <v>1607715</v>
+      </c>
+      <c r="N171">
+        <v>109451697</v>
+      </c>
+      <c r="R171">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C172">
+        <v>1607750</v>
+      </c>
+      <c r="N172">
+        <v>109451697</v>
+      </c>
+      <c r="R172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C173">
+        <v>1607798</v>
+      </c>
+      <c r="N173">
+        <v>109451697</v>
+      </c>
+      <c r="R173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C174">
+        <v>1607799</v>
+      </c>
+      <c r="N174">
+        <v>109451697</v>
+      </c>
+      <c r="R174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C175">
+        <v>1607805</v>
+      </c>
+      <c r="N175">
+        <v>109451697</v>
+      </c>
+      <c r="R175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
+        <v>58</v>
+      </c>
+      <c r="N176">
+        <v>109451697</v>
+      </c>
+      <c r="R176" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C177">
+        <v>1611725</v>
+      </c>
+      <c r="N177">
+        <v>109451697</v>
+      </c>
+      <c r="R177" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C178">
+        <v>1611630</v>
+      </c>
+      <c r="N178">
+        <v>109451697</v>
+      </c>
+      <c r="R178" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C179">
+        <v>1611636</v>
+      </c>
+      <c r="N179">
+        <v>109451697</v>
+      </c>
+      <c r="R179">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
+        <v>44</v>
+      </c>
+      <c r="N180">
+        <v>109451697</v>
+      </c>
+      <c r="R180" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C181">
+        <v>1601319</v>
+      </c>
+      <c r="N181">
+        <v>109451697</v>
+      </c>
+      <c r="R181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C182">
+        <v>1601339</v>
+      </c>
+      <c r="N182">
+        <v>109451697</v>
+      </c>
+      <c r="R182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+      <c r="N183">
+        <v>109451697</v>
+      </c>
+      <c r="R183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C184">
+        <v>1607778</v>
+      </c>
+      <c r="N184">
+        <v>109451697</v>
+      </c>
+      <c r="R184">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C185">
+        <v>1607779</v>
+      </c>
+      <c r="N185">
+        <v>109451697</v>
+      </c>
+      <c r="R185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C186">
+        <v>1611642</v>
+      </c>
+      <c r="N186">
+        <v>109451697</v>
+      </c>
+      <c r="R186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C187">
+        <v>1611893</v>
+      </c>
+      <c r="N187">
+        <v>109451697</v>
+      </c>
+      <c r="R187">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C188">
+        <v>1603205</v>
+      </c>
+      <c r="N188">
+        <v>109451697</v>
+      </c>
+      <c r="R188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C189">
+        <v>1600580</v>
+      </c>
+      <c r="N189">
+        <v>109451697</v>
+      </c>
+      <c r="R189" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C190">
+        <v>1600584</v>
+      </c>
+      <c r="N190">
+        <v>109451697</v>
+      </c>
+      <c r="R190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
+        <v>60</v>
+      </c>
+      <c r="N191">
+        <v>109451697</v>
+      </c>
+      <c r="R191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C192" t="s">
+        <v>61</v>
+      </c>
+      <c r="N192">
+        <v>109451697</v>
+      </c>
+      <c r="R192" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C193">
+        <v>1600614</v>
+      </c>
+      <c r="N193">
+        <v>109451697</v>
+      </c>
+      <c r="R193" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C194">
+        <v>1600615</v>
+      </c>
+      <c r="N194">
+        <v>109451697</v>
+      </c>
+      <c r="R194" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C195" t="s">
+        <v>62</v>
+      </c>
+      <c r="N195">
+        <v>109451697</v>
+      </c>
+      <c r="R195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C196">
+        <v>1600616</v>
+      </c>
+      <c r="N196">
+        <v>109451697</v>
+      </c>
+      <c r="R196" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C197">
+        <v>1600617</v>
+      </c>
+      <c r="N197">
+        <v>109451697</v>
+      </c>
+      <c r="R197">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="N198">
+        <v>109451697</v>
+      </c>
+      <c r="R198" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C199" t="s">
+        <v>64</v>
+      </c>
+      <c r="N199">
+        <v>109451697</v>
+      </c>
+      <c r="R199">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="200" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C200">
+        <v>1600517</v>
+      </c>
+      <c r="N200">
+        <v>109451697</v>
+      </c>
+      <c r="R200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C201">
+        <v>1600577</v>
+      </c>
+      <c r="N201">
+        <v>109451697</v>
+      </c>
+      <c r="R201" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C202">
+        <v>1620004</v>
+      </c>
+      <c r="N202">
+        <v>109451741</v>
+      </c>
+      <c r="R202" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C203">
+        <v>1620018</v>
+      </c>
+      <c r="N203">
+        <v>109452208</v>
+      </c>
+      <c r="R203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C204">
+        <v>1620004</v>
+      </c>
+      <c r="N204">
+        <v>109452208</v>
+      </c>
+      <c r="R204" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="N205">
+        <v>109452208</v>
+      </c>
+      <c r="R205" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C206">
+        <v>1601261</v>
+      </c>
+      <c r="N206">
+        <v>109452371</v>
+      </c>
+      <c r="R206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C207" t="s">
+        <v>39</v>
+      </c>
+      <c r="N207">
+        <v>109453590</v>
+      </c>
+      <c r="R207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C208">
+        <v>1607675</v>
+      </c>
+      <c r="N208">
+        <v>109453590</v>
+      </c>
+      <c r="R208" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C209">
+        <v>1601108</v>
+      </c>
+      <c r="N209">
+        <v>109453590</v>
+      </c>
+      <c r="R209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C210" t="s">
+        <v>37</v>
+      </c>
+      <c r="N210">
+        <v>109453590</v>
+      </c>
+      <c r="R210">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C211" t="s">
+        <v>46</v>
+      </c>
+      <c r="N211">
+        <v>109453590</v>
+      </c>
+      <c r="R211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C212">
+        <v>1607821</v>
+      </c>
+      <c r="N212">
+        <v>109453590</v>
+      </c>
+      <c r="R212" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C213" t="s">
+        <v>55</v>
+      </c>
+      <c r="N213">
+        <v>109453590</v>
+      </c>
+      <c r="R213" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C214" t="s">
+        <v>60</v>
+      </c>
+      <c r="N214">
+        <v>109453590</v>
+      </c>
+      <c r="R214">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C215" t="s">
+        <v>65</v>
+      </c>
+      <c r="N215">
+        <v>109453590</v>
+      </c>
+      <c r="R215" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C216" t="s">
+        <v>66</v>
+      </c>
+      <c r="N216">
+        <v>109453590</v>
+      </c>
+      <c r="R216" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C217">
+        <v>1611607</v>
+      </c>
+      <c r="N217">
+        <v>109453590</v>
+      </c>
+      <c r="R217" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C218">
+        <v>1611608</v>
+      </c>
+      <c r="N218">
+        <v>109453590</v>
+      </c>
+      <c r="R218" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C219">
+        <v>1602265</v>
+      </c>
+      <c r="N219">
+        <v>109453590</v>
+      </c>
+      <c r="R219">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C220">
+        <v>1602266</v>
+      </c>
+      <c r="N220">
+        <v>109453590</v>
+      </c>
+      <c r="R220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C221">
+        <v>1602881</v>
+      </c>
+      <c r="N221">
+        <v>109453590</v>
+      </c>
+      <c r="R221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C222">
+        <v>1607704</v>
+      </c>
+      <c r="N222">
+        <v>109453590</v>
+      </c>
+      <c r="R222" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C223">
+        <v>1607705</v>
+      </c>
+      <c r="N223">
+        <v>109453590</v>
+      </c>
+      <c r="R223" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C224">
+        <v>1607707</v>
+      </c>
+      <c r="N224">
+        <v>109453590</v>
+      </c>
+      <c r="R224" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C225">
+        <v>1607714</v>
+      </c>
+      <c r="N225">
+        <v>109453590</v>
+      </c>
+      <c r="R225">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C226">
+        <v>1607715</v>
+      </c>
+      <c r="N226">
+        <v>109453590</v>
+      </c>
+      <c r="R226" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="227" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C227">
+        <v>1607724</v>
+      </c>
+      <c r="N227">
+        <v>109453590</v>
+      </c>
+      <c r="R227">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C228">
+        <v>1607798</v>
+      </c>
+      <c r="N228">
+        <v>109453590</v>
+      </c>
+      <c r="R228" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C229">
+        <v>1607799</v>
+      </c>
+      <c r="N229">
+        <v>109453590</v>
+      </c>
+      <c r="R229" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C230">
+        <v>1601288</v>
+      </c>
+      <c r="N230">
+        <v>109453590</v>
+      </c>
+      <c r="R230" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="231" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C231" t="s">
+        <v>51</v>
+      </c>
+      <c r="N231">
+        <v>109453590</v>
+      </c>
+      <c r="R231" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C232">
+        <v>1620003</v>
+      </c>
+      <c r="N232">
+        <v>109453590</v>
+      </c>
+      <c r="R232" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C233">
+        <v>1620004</v>
+      </c>
+      <c r="N233">
+        <v>109453590</v>
+      </c>
+      <c r="R233" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="234" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C234" t="s">
+        <v>45</v>
+      </c>
+      <c r="N234">
+        <v>109453590</v>
+      </c>
+      <c r="R234">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C235" t="s">
+        <v>53</v>
+      </c>
+      <c r="N235">
+        <v>109453590</v>
+      </c>
+      <c r="R235">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="236" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C236" t="s">
+        <v>59</v>
+      </c>
+      <c r="N236">
+        <v>109453590</v>
+      </c>
+      <c r="R236">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C237">
+        <v>1607778</v>
+      </c>
+      <c r="N237">
+        <v>109453590</v>
+      </c>
+      <c r="R237" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C238">
+        <v>1607779</v>
+      </c>
+      <c r="N238">
+        <v>109453590</v>
+      </c>
+      <c r="R238" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C239" t="s">
+        <v>18</v>
+      </c>
+      <c r="N239">
+        <v>109453590</v>
+      </c>
+      <c r="R239" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="N240">
+        <v>109453590</v>
+      </c>
+      <c r="R240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C241">
+        <v>1600580</v>
+      </c>
+      <c r="N241">
+        <v>109453590</v>
+      </c>
+      <c r="R241" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C242">
+        <v>1600584</v>
+      </c>
+      <c r="N242">
+        <v>109453590</v>
+      </c>
+      <c r="R242" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C243" t="s">
+        <v>61</v>
+      </c>
+      <c r="N243">
+        <v>109453590</v>
+      </c>
+      <c r="R243" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C244">
+        <v>1600614</v>
+      </c>
+      <c r="N244">
+        <v>109453590</v>
+      </c>
+      <c r="R244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C245">
+        <v>1600615</v>
+      </c>
+      <c r="N245">
+        <v>109453590</v>
+      </c>
+      <c r="R245" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C246" t="s">
+        <v>62</v>
+      </c>
+      <c r="N246">
+        <v>109453590</v>
+      </c>
+      <c r="R246">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C247">
+        <v>1600616</v>
+      </c>
+      <c r="N247">
+        <v>109453590</v>
+      </c>
+      <c r="R247">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C248">
+        <v>1600617</v>
+      </c>
+      <c r="N248">
+        <v>109453590</v>
+      </c>
+      <c r="R248">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="N249">
+        <v>109453590</v>
+      </c>
+      <c r="R249">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C250" t="s">
+        <v>64</v>
+      </c>
+      <c r="N250">
+        <v>109453590</v>
+      </c>
+      <c r="R250" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C251">
+        <v>1600517</v>
+      </c>
+      <c r="N251">
+        <v>109453590</v>
+      </c>
+      <c r="R251" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C252">
+        <v>1600577</v>
+      </c>
+      <c r="N252">
+        <v>109453590</v>
+      </c>
+      <c r="R252" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C253" t="s">
+        <v>67</v>
+      </c>
+      <c r="N253">
+        <v>109453605</v>
+      </c>
+      <c r="R253" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C254">
+        <v>1607821</v>
+      </c>
+      <c r="N254">
+        <v>109453605</v>
+      </c>
+      <c r="R254" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="255" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="N255">
+        <v>109453605</v>
+      </c>
+      <c r="R255" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="256" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C256" t="s">
+        <v>48</v>
+      </c>
+      <c r="N256">
+        <v>109453605</v>
+      </c>
+      <c r="R256">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C257">
+        <v>1602881</v>
+      </c>
+      <c r="N257">
+        <v>109453605</v>
+      </c>
+      <c r="R257">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="258" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C258">
+        <v>1611725</v>
+      </c>
+      <c r="N258">
+        <v>109453605</v>
+      </c>
+      <c r="R258" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C259">
+        <v>1600617</v>
+      </c>
+      <c r="N259">
+        <v>109453605</v>
+      </c>
+      <c r="R259" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+      <c r="N260">
+        <v>109454377</v>
+      </c>
+      <c r="R260" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C261" t="s">
+        <v>19</v>
+      </c>
+      <c r="N261">
+        <v>109454377</v>
+      </c>
+      <c r="R261">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="N262">
+        <v>109454377</v>
+      </c>
+      <c r="R262" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C263" t="s">
+        <v>48</v>
+      </c>
+      <c r="N263">
+        <v>109454377</v>
+      </c>
+      <c r="R263" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C264">
+        <v>1600906</v>
+      </c>
+      <c r="N264">
+        <v>109454377</v>
+      </c>
+      <c r="R264">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C265">
+        <v>1600931</v>
+      </c>
+      <c r="N265">
+        <v>109454377</v>
+      </c>
+      <c r="R265">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="266" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C266">
+        <v>1600958</v>
+      </c>
+      <c r="N266">
+        <v>109454377</v>
+      </c>
+      <c r="R266" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C267" t="s">
+        <v>40</v>
+      </c>
+      <c r="N267">
+        <v>109454377</v>
+      </c>
+      <c r="R267" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C268" t="s">
+        <v>39</v>
+      </c>
+      <c r="N268">
+        <v>109454377</v>
+      </c>
+      <c r="R268" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C269">
+        <v>1602104</v>
+      </c>
+      <c r="N269">
+        <v>109454377</v>
+      </c>
+      <c r="R269" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="270" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C270">
+        <v>1602154</v>
+      </c>
+      <c r="N270">
+        <v>109454377</v>
+      </c>
+      <c r="R270" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="271" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C271">
+        <v>1611612</v>
+      </c>
+      <c r="N271">
+        <v>109454377</v>
+      </c>
+      <c r="R271">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="272" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C272">
+        <v>19999993</v>
+      </c>
+      <c r="N272">
+        <v>109454377</v>
+      </c>
+      <c r="R272">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C273">
+        <v>1611441</v>
+      </c>
+      <c r="N273">
+        <v>109454377</v>
+      </c>
+      <c r="R273" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="274" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C274">
+        <v>1611442</v>
+      </c>
+      <c r="N274">
+        <v>109454377</v>
+      </c>
+      <c r="R274" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C275">
+        <v>1611451</v>
+      </c>
+      <c r="N275">
+        <v>109454377</v>
+      </c>
+      <c r="R275" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C276">
+        <v>1611452</v>
+      </c>
+      <c r="N276">
+        <v>109454377</v>
+      </c>
+      <c r="R276" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C277" t="s">
+        <v>41</v>
+      </c>
+      <c r="N277">
+        <v>109454377</v>
+      </c>
+      <c r="R277" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C278" t="s">
+        <v>38</v>
+      </c>
+      <c r="N278">
+        <v>109454377</v>
+      </c>
+      <c r="R278" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="279" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C279">
+        <v>1601002</v>
+      </c>
+      <c r="N279">
+        <v>109454377</v>
+      </c>
+      <c r="R279" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C280">
+        <v>1601013</v>
+      </c>
+      <c r="N280">
+        <v>109454377</v>
+      </c>
+      <c r="R280">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C281">
+        <v>1601025</v>
+      </c>
+      <c r="N281">
+        <v>109454377</v>
+      </c>
+      <c r="R281" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="282" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C282">
         <v>1601032</v>
       </c>
-      <c r="N2">
-        <v>101204797</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C3">
-        <v>1608876</v>
-      </c>
-      <c r="N3">
-        <v>101204797</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <v>1601002</v>
-      </c>
-      <c r="N4">
-        <v>102343878</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>1600544</v>
-      </c>
-      <c r="N5">
-        <v>102343878</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
+      <c r="N282">
+        <v>109454377</v>
+      </c>
+      <c r="R282">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C283">
+        <v>19999999</v>
+      </c>
+      <c r="N283">
+        <v>109454377</v>
+      </c>
+      <c r="R283">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C284">
+        <v>1620015</v>
+      </c>
+      <c r="N284">
+        <v>109454377</v>
+      </c>
+      <c r="R284" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="285" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C285" t="s">
+        <v>45</v>
+      </c>
+      <c r="N285">
+        <v>109454377</v>
+      </c>
+      <c r="R285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C286" t="s">
+        <v>53</v>
+      </c>
+      <c r="N286">
+        <v>109454377</v>
+      </c>
+      <c r="R286" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C287" t="s">
+        <v>59</v>
+      </c>
+      <c r="N287">
+        <v>109454377</v>
+      </c>
+      <c r="R287" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C288">
+        <v>1607778</v>
+      </c>
+      <c r="N288">
+        <v>109454377</v>
+      </c>
+      <c r="R288" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="289" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C289">
+        <v>1607779</v>
+      </c>
+      <c r="N289">
+        <v>109454377</v>
+      </c>
+      <c r="R289" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="290" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C290">
+        <v>1600617</v>
+      </c>
+      <c r="N290">
+        <v>109454377</v>
+      </c>
+      <c r="R290" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C291">
+        <v>1600517</v>
+      </c>
+      <c r="N291">
+        <v>109454377</v>
+      </c>
+      <c r="R291">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C292">
+        <v>1608802</v>
+      </c>
+      <c r="N292">
+        <v>109455682</v>
+      </c>
+      <c r="R292" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="293" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C293">
+        <v>1608103</v>
+      </c>
+      <c r="N293">
+        <v>109455682</v>
+      </c>
+      <c r="R293" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="294" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C294">
+        <v>1608125</v>
+      </c>
+      <c r="N294">
+        <v>109455682</v>
+      </c>
+      <c r="R294" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C295" t="s">
+        <v>69</v>
+      </c>
+      <c r="N295">
+        <v>109455682</v>
+      </c>
+      <c r="R295" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="296" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C296">
+        <v>1611441</v>
+      </c>
+      <c r="N296">
+        <v>109455682</v>
+      </c>
+      <c r="R296">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="297" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C297">
+        <v>1611451</v>
+      </c>
+      <c r="N297">
+        <v>109455682</v>
+      </c>
+      <c r="R297" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C298">
+        <v>1611518</v>
+      </c>
+      <c r="N298">
+        <v>109455682</v>
+      </c>
+      <c r="R298" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="299" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C299" t="s">
+        <v>36</v>
+      </c>
+      <c r="N299">
+        <v>109455682</v>
+      </c>
+      <c r="R299" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C300">
+        <v>1601052</v>
+      </c>
+      <c r="N300">
+        <v>109455682</v>
+      </c>
+      <c r="R300" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="301" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C301">
+        <v>19999999</v>
+      </c>
+      <c r="N301">
+        <v>109455682</v>
+      </c>
+      <c r="R301">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C302" t="s">
+        <v>70</v>
+      </c>
+      <c r="N302">
+        <v>109455682</v>
+      </c>
+      <c r="R302" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="303" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C303">
+        <v>1601235</v>
+      </c>
+      <c r="N303">
+        <v>109455682</v>
+      </c>
+      <c r="R303" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="304" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C304" t="s">
+        <v>71</v>
+      </c>
+      <c r="N304">
+        <v>109455682</v>
+      </c>
+      <c r="R304" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C305">
+        <v>1601025</v>
+      </c>
+      <c r="N305">
+        <v>109455688</v>
+      </c>
+      <c r="R305">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="306" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="C306" t="s">
+        <v>72</v>
+      </c>
+      <c r="N306">
+        <v>109455688</v>
+      </c>
+      <c r="R306" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
